--- a/Stats.xlsx
+++ b/Stats.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="29010" windowHeight="13095"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="29010" windowHeight="13095" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Φύλλο1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="37">
   <si>
     <t>Αρχικός Σχεδιασμός</t>
   </si>
@@ -127,13 +127,22 @@
   </si>
   <si>
     <t>9.14s</t>
+  </si>
+  <si>
+    <t>Precision</t>
+  </si>
+  <si>
+    <t>avg/total</t>
+  </si>
+  <si>
+    <t>KNN</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -149,6 +158,28 @@
       <family val="2"/>
       <charset val="161"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Cambria"/>
+      <family val="1"/>
+      <charset val="161"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
+      <name val="Cambria"/>
+      <family val="1"/>
+      <charset val="161"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Cambria"/>
+      <family val="1"/>
+      <charset val="161"/>
     </font>
   </fonts>
   <fills count="2">
@@ -186,7 +217,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -201,6 +232,15 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -485,7 +525,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:W41"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
@@ -1575,14 +1615,398 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="C1:O24"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <cols>
+    <col min="3" max="3" width="14.28515625" customWidth="1"/>
+    <col min="4" max="4" width="20.42578125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="3:15" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2" spans="3:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E2" s="1"/>
+      <c r="F2" s="1"/>
+      <c r="G2" s="1"/>
+      <c r="H2" s="1"/>
+      <c r="I2" s="1"/>
+      <c r="J2" s="1"/>
+      <c r="K2" s="1"/>
+      <c r="L2" s="1"/>
+      <c r="M2" s="1"/>
+      <c r="N2" s="1"/>
+      <c r="O2" s="1"/>
+    </row>
+    <row r="3" spans="3:15" ht="44.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C3" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="D3" s="8"/>
+      <c r="E3" s="1"/>
+      <c r="F3" s="1"/>
+      <c r="G3" s="1"/>
+      <c r="H3" s="1"/>
+      <c r="I3" s="1"/>
+      <c r="J3" s="1"/>
+      <c r="K3" s="1"/>
+      <c r="L3" s="1"/>
+      <c r="M3" s="1"/>
+      <c r="N3" s="1"/>
+      <c r="O3" s="1"/>
+    </row>
+    <row r="4" spans="3:15" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C4" s="6"/>
+      <c r="D4" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="E4" s="1"/>
+      <c r="F4" s="1"/>
+      <c r="G4" s="1"/>
+      <c r="H4" s="1"/>
+      <c r="I4" s="1"/>
+      <c r="J4" s="1"/>
+      <c r="K4" s="1"/>
+      <c r="L4" s="1"/>
+      <c r="M4" s="1"/>
+      <c r="N4" s="1"/>
+      <c r="O4" s="1"/>
+    </row>
+    <row r="5" spans="3:15" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C5" s="6">
+        <v>0</v>
+      </c>
+      <c r="D5" s="6">
+        <v>1</v>
+      </c>
+      <c r="E5" s="1"/>
+      <c r="F5" s="1"/>
+      <c r="G5" s="1"/>
+      <c r="H5" s="1"/>
+      <c r="I5" s="1"/>
+      <c r="J5" s="1"/>
+      <c r="K5" s="1"/>
+      <c r="L5" s="1"/>
+      <c r="M5" s="1"/>
+      <c r="N5" s="1"/>
+      <c r="O5" s="1"/>
+    </row>
+    <row r="6" spans="3:15" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C6" s="6">
+        <v>1</v>
+      </c>
+      <c r="D6" s="6">
+        <v>0.95</v>
+      </c>
+      <c r="E6" s="1"/>
+      <c r="F6" s="1"/>
+      <c r="G6" s="1"/>
+      <c r="H6" s="1"/>
+      <c r="I6" s="1"/>
+      <c r="J6" s="1"/>
+      <c r="K6" s="1"/>
+      <c r="L6" s="1"/>
+      <c r="M6" s="1"/>
+      <c r="N6" s="1"/>
+      <c r="O6" s="1"/>
+    </row>
+    <row r="7" spans="3:15" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C7" s="6">
+        <v>2</v>
+      </c>
+      <c r="D7" s="6">
+        <v>1</v>
+      </c>
+      <c r="E7" s="1"/>
+      <c r="F7" s="1"/>
+      <c r="G7" s="1"/>
+      <c r="H7" s="1"/>
+      <c r="I7" s="1"/>
+      <c r="J7" s="1"/>
+      <c r="K7" s="1"/>
+      <c r="L7" s="1"/>
+      <c r="M7" s="1"/>
+      <c r="N7" s="1"/>
+      <c r="O7" s="1"/>
+    </row>
+    <row r="8" spans="3:15" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C8" s="6">
+        <v>3</v>
+      </c>
+      <c r="D8" s="6">
+        <v>0.98</v>
+      </c>
+      <c r="E8" s="1"/>
+      <c r="F8" s="1"/>
+      <c r="G8" s="1"/>
+      <c r="H8" s="1"/>
+      <c r="I8" s="1"/>
+      <c r="J8" s="1"/>
+      <c r="K8" s="1"/>
+      <c r="L8" s="1"/>
+      <c r="M8" s="1"/>
+      <c r="N8" s="1"/>
+      <c r="O8" s="1"/>
+    </row>
+    <row r="9" spans="3:15" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C9" s="6">
+        <v>4</v>
+      </c>
+      <c r="D9" s="6">
+        <v>0.98</v>
+      </c>
+      <c r="E9" s="1"/>
+      <c r="F9" s="1"/>
+      <c r="G9" s="1"/>
+      <c r="H9" s="1"/>
+      <c r="I9" s="1"/>
+      <c r="J9" s="1"/>
+      <c r="K9" s="1"/>
+      <c r="L9" s="1"/>
+      <c r="M9" s="1"/>
+      <c r="N9" s="1"/>
+      <c r="O9" s="1"/>
+    </row>
+    <row r="10" spans="3:15" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C10" s="6">
+        <v>5</v>
+      </c>
+      <c r="D10" s="6">
+        <v>0.98</v>
+      </c>
+      <c r="E10" s="1"/>
+      <c r="F10" s="1"/>
+      <c r="G10" s="1"/>
+      <c r="H10" s="1"/>
+      <c r="I10" s="1"/>
+      <c r="J10" s="1"/>
+      <c r="K10" s="1"/>
+      <c r="L10" s="1"/>
+      <c r="M10" s="1"/>
+      <c r="N10" s="1"/>
+      <c r="O10" s="1"/>
+    </row>
+    <row r="11" spans="3:15" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C11" s="6">
+        <v>6</v>
+      </c>
+      <c r="D11" s="6">
+        <v>1</v>
+      </c>
+      <c r="E11" s="1"/>
+      <c r="F11" s="1"/>
+      <c r="G11" s="1"/>
+      <c r="H11" s="1"/>
+      <c r="I11" s="1"/>
+      <c r="J11" s="1"/>
+      <c r="K11" s="1"/>
+      <c r="L11" s="1"/>
+      <c r="M11" s="1"/>
+      <c r="N11" s="1"/>
+      <c r="O11" s="1"/>
+    </row>
+    <row r="12" spans="3:15" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C12" s="6">
+        <v>7</v>
+      </c>
+      <c r="D12" s="6">
+        <v>1</v>
+      </c>
+      <c r="E12" s="1"/>
+      <c r="F12" s="1"/>
+      <c r="G12" s="1"/>
+      <c r="H12" s="1"/>
+      <c r="I12" s="1"/>
+      <c r="J12" s="1"/>
+      <c r="K12" s="1"/>
+      <c r="L12" s="1"/>
+      <c r="M12" s="1"/>
+      <c r="N12" s="1"/>
+      <c r="O12" s="1"/>
+    </row>
+    <row r="13" spans="3:15" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C13" s="6">
+        <v>8</v>
+      </c>
+      <c r="D13" s="6">
+        <v>0.97</v>
+      </c>
+      <c r="E13" s="1"/>
+      <c r="F13" s="1"/>
+      <c r="G13" s="1"/>
+      <c r="H13" s="1"/>
+      <c r="I13" s="1"/>
+      <c r="J13" s="1"/>
+      <c r="K13" s="1"/>
+      <c r="L13" s="1"/>
+      <c r="M13" s="1"/>
+      <c r="N13" s="1"/>
+      <c r="O13" s="1"/>
+    </row>
+    <row r="14" spans="3:15" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C14" s="6">
+        <v>9</v>
+      </c>
+      <c r="D14" s="6">
+        <v>0.96</v>
+      </c>
+      <c r="E14" s="1"/>
+      <c r="F14" s="1"/>
+      <c r="G14" s="1"/>
+      <c r="H14" s="1"/>
+      <c r="I14" s="1"/>
+      <c r="J14" s="1"/>
+      <c r="K14" s="1"/>
+      <c r="L14" s="1"/>
+      <c r="M14" s="1"/>
+      <c r="N14" s="1"/>
+      <c r="O14" s="1"/>
+    </row>
+    <row r="15" spans="3:15" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C15" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="D15" s="7">
+        <f>SUM(D5:D14)/10</f>
+        <v>0.98199999999999998</v>
+      </c>
+      <c r="E15" s="1"/>
+      <c r="F15" s="1"/>
+      <c r="G15" s="1"/>
+      <c r="H15" s="1"/>
+      <c r="I15" s="1"/>
+      <c r="J15" s="1"/>
+      <c r="K15" s="1"/>
+      <c r="L15" s="1"/>
+      <c r="M15" s="1"/>
+      <c r="N15" s="1"/>
+      <c r="O15" s="1"/>
+    </row>
+    <row r="16" spans="3:15" x14ac:dyDescent="0.25">
+      <c r="E16" s="1"/>
+      <c r="F16" s="1"/>
+      <c r="G16" s="1"/>
+      <c r="H16" s="1"/>
+      <c r="I16" s="1"/>
+      <c r="J16" s="1"/>
+      <c r="K16" s="1"/>
+      <c r="L16" s="1"/>
+      <c r="M16" s="1"/>
+      <c r="N16" s="1"/>
+      <c r="O16" s="1"/>
+    </row>
+    <row r="17" spans="5:15" x14ac:dyDescent="0.25">
+      <c r="E17" s="1"/>
+      <c r="F17" s="1"/>
+      <c r="G17" s="1"/>
+      <c r="H17" s="1"/>
+      <c r="I17" s="1"/>
+      <c r="J17" s="1"/>
+      <c r="K17" s="1"/>
+      <c r="L17" s="1"/>
+      <c r="M17" s="1"/>
+      <c r="N17" s="1"/>
+      <c r="O17" s="1"/>
+    </row>
+    <row r="18" spans="5:15" x14ac:dyDescent="0.25">
+      <c r="E18" s="1"/>
+      <c r="F18" s="1"/>
+      <c r="G18" s="1"/>
+      <c r="H18" s="1"/>
+      <c r="I18" s="1"/>
+      <c r="J18" s="1"/>
+      <c r="K18" s="1"/>
+      <c r="L18" s="1"/>
+      <c r="M18" s="1"/>
+      <c r="N18" s="1"/>
+      <c r="O18" s="1"/>
+    </row>
+    <row r="19" spans="5:15" x14ac:dyDescent="0.25">
+      <c r="E19" s="1"/>
+      <c r="F19" s="1"/>
+      <c r="G19" s="1"/>
+      <c r="H19" s="1"/>
+      <c r="I19" s="1"/>
+      <c r="J19" s="1"/>
+      <c r="K19" s="1"/>
+      <c r="L19" s="1"/>
+      <c r="M19" s="1"/>
+      <c r="N19" s="1"/>
+      <c r="O19" s="1"/>
+    </row>
+    <row r="20" spans="5:15" x14ac:dyDescent="0.25">
+      <c r="E20" s="1"/>
+      <c r="F20" s="1"/>
+      <c r="G20" s="1"/>
+      <c r="H20" s="1"/>
+      <c r="I20" s="1"/>
+      <c r="J20" s="1"/>
+      <c r="K20" s="1"/>
+      <c r="L20" s="1"/>
+      <c r="M20" s="1"/>
+      <c r="N20" s="1"/>
+      <c r="O20" s="1"/>
+    </row>
+    <row r="21" spans="5:15" x14ac:dyDescent="0.25">
+      <c r="E21" s="1"/>
+      <c r="F21" s="1"/>
+      <c r="G21" s="1"/>
+      <c r="H21" s="1"/>
+      <c r="I21" s="1"/>
+      <c r="J21" s="1"/>
+      <c r="K21" s="1"/>
+      <c r="L21" s="1"/>
+      <c r="M21" s="1"/>
+      <c r="N21" s="1"/>
+      <c r="O21" s="1"/>
+    </row>
+    <row r="22" spans="5:15" x14ac:dyDescent="0.25">
+      <c r="E22" s="1"/>
+      <c r="F22" s="1"/>
+      <c r="G22" s="1"/>
+      <c r="H22" s="1"/>
+      <c r="I22" s="1"/>
+      <c r="J22" s="1"/>
+      <c r="K22" s="1"/>
+      <c r="L22" s="1"/>
+      <c r="M22" s="1"/>
+      <c r="N22" s="1"/>
+      <c r="O22" s="1"/>
+    </row>
+    <row r="23" spans="5:15" x14ac:dyDescent="0.25">
+      <c r="E23" s="1"/>
+      <c r="F23" s="1"/>
+      <c r="G23" s="1"/>
+      <c r="H23" s="1"/>
+      <c r="I23" s="1"/>
+      <c r="J23" s="1"/>
+      <c r="K23" s="1"/>
+      <c r="L23" s="1"/>
+      <c r="M23" s="1"/>
+      <c r="N23" s="1"/>
+      <c r="O23" s="1"/>
+    </row>
+    <row r="24" spans="5:15" x14ac:dyDescent="0.25">
+      <c r="E24" s="1"/>
+      <c r="F24" s="1"/>
+      <c r="G24" s="1"/>
+      <c r="H24" s="1"/>
+      <c r="I24" s="1"/>
+      <c r="J24" s="1"/>
+      <c r="K24" s="1"/>
+      <c r="L24" s="1"/>
+      <c r="M24" s="1"/>
+      <c r="N24" s="1"/>
+      <c r="O24" s="1"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="C3:D3"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>